--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H2">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I2">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J2">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N2">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O2">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P2">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q2">
-        <v>0.1553712072217908</v>
+        <v>0.0588670344375</v>
       </c>
       <c r="R2">
-        <v>0.1553712072217908</v>
+        <v>0.23546813775</v>
       </c>
       <c r="S2">
-        <v>0.001445667979588974</v>
+        <v>0.0004330721268715341</v>
       </c>
       <c r="T2">
-        <v>0.001445667979588974</v>
+        <v>0.0002862723875687388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H3">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I3">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J3">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N3">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P3">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q3">
-        <v>1.581680231933133</v>
+        <v>0.5956074017915</v>
       </c>
       <c r="R3">
-        <v>1.581680231933133</v>
+        <v>3.573644410749</v>
       </c>
       <c r="S3">
-        <v>0.01471691252286221</v>
+        <v>0.004381755709948885</v>
       </c>
       <c r="T3">
-        <v>0.01471691252286221</v>
+        <v>0.004344688532224972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H4">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I4">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J4">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N4">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O4">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P4">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q4">
-        <v>0.4418090116430595</v>
+        <v>0.209177480544</v>
       </c>
       <c r="R4">
-        <v>0.4418090116430595</v>
+        <v>1.255064883264</v>
       </c>
       <c r="S4">
-        <v>0.004110859100904536</v>
+        <v>0.001538873790032665</v>
       </c>
       <c r="T4">
-        <v>0.004110859100904536</v>
+        <v>0.001525855787194145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H5">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I5">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J5">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N5">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O5">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P5">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q5">
-        <v>0.3035447098988907</v>
+        <v>0.1095855777745</v>
       </c>
       <c r="R5">
-        <v>0.3035447098988907</v>
+        <v>0.6575134666469999</v>
       </c>
       <c r="S5">
-        <v>0.002824364149066773</v>
+        <v>0.0008061975551297046</v>
       </c>
       <c r="T5">
-        <v>0.002824364149066773</v>
+        <v>0.0007993775792947383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H6">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I6">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J6">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N6">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O6">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P6">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q6">
-        <v>0.1582412593691554</v>
+        <v>0.0710279711585</v>
       </c>
       <c r="R6">
-        <v>0.1582412593691554</v>
+        <v>0.426167826951</v>
       </c>
       <c r="S6">
-        <v>0.001472372686100475</v>
+        <v>0.0005225375259839219</v>
       </c>
       <c r="T6">
-        <v>0.001472372686100475</v>
+        <v>0.0005181171537347153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H7">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I7">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J7">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N7">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O7">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P7">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q7">
-        <v>15.34720433592353</v>
+        <v>5.516390960503499</v>
       </c>
       <c r="R7">
-        <v>15.34720433592353</v>
+        <v>22.065563842014</v>
       </c>
       <c r="S7">
-        <v>0.1427997006741542</v>
+        <v>0.04058290329635319</v>
       </c>
       <c r="T7">
-        <v>0.1427997006741542</v>
+        <v>0.02682639657519345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H8">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I8">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J8">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N8">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O8">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P8">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q8">
-        <v>0.2073062160662228</v>
+        <v>0.1815772779583333</v>
       </c>
       <c r="R8">
-        <v>0.2073062160662228</v>
+        <v>1.08946366775</v>
       </c>
       <c r="S8">
-        <v>0.001928902812146389</v>
+        <v>0.001335825028530157</v>
       </c>
       <c r="T8">
-        <v>0.001928902812146389</v>
+        <v>0.001324524703496483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H9">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I9">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J9">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N9">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P9">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q9">
-        <v>2.110379070690625</v>
+        <v>1.837170358292111</v>
       </c>
       <c r="R9">
-        <v>2.110379070690625</v>
+        <v>16.534533224629</v>
       </c>
       <c r="S9">
-        <v>0.01963624729347075</v>
+        <v>0.01351566767535457</v>
       </c>
       <c r="T9">
-        <v>0.01963624729347075</v>
+        <v>0.02010199914425229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H10">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I10">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J10">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N10">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O10">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P10">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q10">
-        <v>0.5894898808177308</v>
+        <v>0.6452147265493333</v>
       </c>
       <c r="R10">
-        <v>0.5894898808177308</v>
+        <v>5.806932538943999</v>
       </c>
       <c r="S10">
-        <v>0.005484971509382673</v>
+        <v>0.00474670614182585</v>
       </c>
       <c r="T10">
-        <v>0.005484971509382673</v>
+        <v>0.007059827534454169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H11">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I11">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J11">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N11">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O11">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P11">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q11">
-        <v>0.4050087937221927</v>
+        <v>0.3380202706985556</v>
       </c>
       <c r="R11">
-        <v>0.4050087937221927</v>
+        <v>3.042182436287</v>
       </c>
       <c r="S11">
-        <v>0.003768447545756164</v>
+        <v>0.002486742519916415</v>
       </c>
       <c r="T11">
-        <v>0.003768447545756164</v>
+        <v>0.003698559124717764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H12">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I12">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J12">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N12">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O12">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P12">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q12">
-        <v>0.2111356234655845</v>
+        <v>0.2190880818967778</v>
       </c>
       <c r="R12">
-        <v>0.2111356234655845</v>
+        <v>1.971792737071</v>
       </c>
       <c r="S12">
-        <v>0.001964533941987297</v>
+        <v>0.001611783955245425</v>
       </c>
       <c r="T12">
-        <v>0.001964533941987297</v>
+        <v>0.002397223760402435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H13">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I13">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J13">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N13">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O13">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P13">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q13">
-        <v>20.47722300010049</v>
+        <v>17.01548692461567</v>
       </c>
       <c r="R13">
-        <v>20.47722300010049</v>
+        <v>102.092921547694</v>
       </c>
       <c r="S13">
-        <v>0.1905325068362878</v>
+        <v>0.125179282133225</v>
       </c>
       <c r="T13">
-        <v>0.1905325068362878</v>
+        <v>0.1241203361295378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H14">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I14">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J14">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N14">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O14">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P14">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q14">
-        <v>0.3179657200613973</v>
+        <v>0.3486981710833333</v>
       </c>
       <c r="R14">
-        <v>0.3179657200613973</v>
+        <v>2.0921890265</v>
       </c>
       <c r="S14">
-        <v>0.002958545977206286</v>
+        <v>0.002565297539280738</v>
       </c>
       <c r="T14">
-        <v>0.002958545977206286</v>
+        <v>0.002543596571427297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H15">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I15">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J15">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N15">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P15">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q15">
-        <v>3.236893777465364</v>
+        <v>3.528073287077111</v>
       </c>
       <c r="R15">
-        <v>3.236893777465364</v>
+        <v>31.752659583694</v>
       </c>
       <c r="S15">
-        <v>0.03011802360995094</v>
+        <v>0.02595527729217163</v>
       </c>
       <c r="T15">
-        <v>0.03011802360995094</v>
+        <v>0.03860356546554239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H16">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I16">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J16">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N16">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O16">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P16">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q16">
-        <v>0.9041580034591976</v>
+        <v>1.239060292309333</v>
       </c>
       <c r="R16">
-        <v>0.9041580034591976</v>
+        <v>11.151542630784</v>
       </c>
       <c r="S16">
-        <v>0.008412834639459096</v>
+        <v>0.009115500402558693</v>
       </c>
       <c r="T16">
-        <v>0.008412834639459096</v>
+        <v>0.01355758262877377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H17">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I17">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J17">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N17">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O17">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P17">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q17">
-        <v>0.6212014052002051</v>
+        <v>0.6491288530535555</v>
       </c>
       <c r="R17">
-        <v>0.6212014052002051</v>
+        <v>5.842159677482</v>
       </c>
       <c r="S17">
-        <v>0.005780034772412197</v>
+        <v>0.004775501529706777</v>
       </c>
       <c r="T17">
-        <v>0.005780034772412197</v>
+        <v>0.007102655227206362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H18">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I18">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J18">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N18">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O18">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P18">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q18">
-        <v>0.3238392548943206</v>
+        <v>0.4207333336117778</v>
       </c>
       <c r="R18">
-        <v>0.3238392548943206</v>
+        <v>3.786600002506</v>
       </c>
       <c r="S18">
-        <v>0.003013196908912292</v>
+        <v>0.003095244755814158</v>
       </c>
       <c r="T18">
-        <v>0.003013196908912292</v>
+        <v>0.004603591100873625</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H19">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I19">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J19">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N19">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O19">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P19">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q19">
-        <v>31.40790990080509</v>
+        <v>32.67627556388067</v>
       </c>
       <c r="R19">
-        <v>31.40790990080509</v>
+        <v>196.057653383284</v>
       </c>
       <c r="S19">
-        <v>0.292238249681575</v>
+        <v>0.2403923399897893</v>
       </c>
       <c r="T19">
-        <v>0.292238249681575</v>
+        <v>0.2383587566091282</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H20">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I20">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J20">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N20">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O20">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P20">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q20">
-        <v>0.09093072420319079</v>
+        <v>0.3577961657916667</v>
       </c>
       <c r="R20">
-        <v>0.09093072420319079</v>
+        <v>2.14677699475</v>
       </c>
       <c r="S20">
-        <v>0.0008460746279311422</v>
+        <v>0.002632229531969908</v>
       </c>
       <c r="T20">
-        <v>0.0008460746279311422</v>
+        <v>0.002609962357273216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H21">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I21">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J21">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N21">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P21">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q21">
-        <v>0.9256755580346635</v>
+        <v>3.620125367524555</v>
       </c>
       <c r="R21">
-        <v>0.9256755580346635</v>
+        <v>32.581128307721</v>
       </c>
       <c r="S21">
-        <v>0.008613047022467769</v>
+        <v>0.02663248467391344</v>
       </c>
       <c r="T21">
-        <v>0.008613047022467769</v>
+        <v>0.03961078335038861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H22">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I22">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J22">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N22">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O22">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P22">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q22">
-        <v>0.2585679425844414</v>
+        <v>1.271389007850667</v>
       </c>
       <c r="R22">
-        <v>0.2585679425844414</v>
+        <v>11.442501070656</v>
       </c>
       <c r="S22">
-        <v>0.002405873017443487</v>
+        <v>0.00935333581812349</v>
       </c>
       <c r="T22">
-        <v>0.002405873017443487</v>
+        <v>0.01391131782225403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H23">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I23">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J23">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N23">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O23">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P23">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q23">
-        <v>0.1776490045530293</v>
+        <v>0.6660654800847777</v>
       </c>
       <c r="R23">
-        <v>0.1776490045530293</v>
+        <v>5.994589320763</v>
       </c>
       <c r="S23">
-        <v>0.001652954122455651</v>
+        <v>0.004900100656544545</v>
       </c>
       <c r="T23">
-        <v>0.001652954122455651</v>
+        <v>0.007287972860136522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H24">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I24">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J24">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N24">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O24">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P24">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q24">
-        <v>0.0926104171458365</v>
+        <v>0.4317108206198889</v>
       </c>
       <c r="R24">
-        <v>0.0926104171458365</v>
+        <v>3.885397385579</v>
       </c>
       <c r="S24">
-        <v>0.0008617035101812371</v>
+        <v>0.003176003769610831</v>
       </c>
       <c r="T24">
-        <v>0.0008617035101812371</v>
+        <v>0.004723704858123786</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H25">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I25">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J25">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N25">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O25">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P25">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q25">
-        <v>8.981924191190508</v>
+        <v>33.52884264573433</v>
       </c>
       <c r="R25">
-        <v>8.981924191190508</v>
+        <v>201.173055874406</v>
       </c>
       <c r="S25">
-        <v>0.08357327223289143</v>
+        <v>0.2466644928673228</v>
       </c>
       <c r="T25">
-        <v>0.08357327223289143</v>
+        <v>0.244577850616927</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.34653605572725</v>
+        <v>0.218412</v>
       </c>
       <c r="H26">
-        <v>0.34653605572725</v>
+        <v>0.655236</v>
       </c>
       <c r="I26">
-        <v>0.1688407028254052</v>
+        <v>0.08611363207593355</v>
       </c>
       <c r="J26">
-        <v>0.1688407028254052</v>
+        <v>0.09179750571636439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N26">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O26">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P26">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q26">
-        <v>0.1567365901123187</v>
+        <v>0.1050288705</v>
       </c>
       <c r="R26">
-        <v>0.1567365901123187</v>
+        <v>0.630173223</v>
       </c>
       <c r="S26">
-        <v>0.001458372330414396</v>
+        <v>0.000772674838557429</v>
       </c>
       <c r="T26">
-        <v>0.001458372330414396</v>
+        <v>0.0007661384459651687</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.34653605572725</v>
+        <v>0.218412</v>
       </c>
       <c r="H27">
-        <v>0.34653605572725</v>
+        <v>0.655236</v>
       </c>
       <c r="I27">
-        <v>0.1688407028254052</v>
+        <v>0.08611363207593355</v>
       </c>
       <c r="J27">
-        <v>0.1688407028254052</v>
+        <v>0.09179750571636439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N27">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P27">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q27">
-        <v>1.595579841555686</v>
+        <v>1.062665603412</v>
       </c>
       <c r="R27">
-        <v>1.595579841555686</v>
+        <v>9.563990430708001</v>
       </c>
       <c r="S27">
-        <v>0.01484624292403125</v>
+        <v>0.007817802568455691</v>
       </c>
       <c r="T27">
-        <v>0.01484624292403125</v>
+        <v>0.01162750256338387</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.34653605572725</v>
+        <v>0.218412</v>
       </c>
       <c r="H28">
-        <v>0.34653605572725</v>
+        <v>0.655236</v>
       </c>
       <c r="I28">
-        <v>0.1688407028254052</v>
+        <v>0.08611363207593355</v>
       </c>
       <c r="J28">
-        <v>0.1688407028254052</v>
+        <v>0.09179750571636439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N28">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O28">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P28">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q28">
-        <v>0.4456915744174954</v>
+        <v>0.373208447232</v>
       </c>
       <c r="R28">
-        <v>0.4456915744174954</v>
+        <v>3.358876025088</v>
       </c>
       <c r="S28">
-        <v>0.004146984820605831</v>
+        <v>0.002745614375746851</v>
       </c>
       <c r="T28">
-        <v>0.004146984820605831</v>
+        <v>0.004083582043997105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.34653605572725</v>
+        <v>0.218412</v>
       </c>
       <c r="H29">
-        <v>0.34653605572725</v>
+        <v>0.655236</v>
       </c>
       <c r="I29">
-        <v>0.1688407028254052</v>
+        <v>0.08611363207593355</v>
       </c>
       <c r="J29">
-        <v>0.1688407028254052</v>
+        <v>0.09179750571636439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N29">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O29">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P29">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q29">
-        <v>0.3062122231455026</v>
+        <v>0.195519437436</v>
       </c>
       <c r="R29">
-        <v>0.3062122231455026</v>
+        <v>1.759674936924</v>
       </c>
       <c r="S29">
-        <v>0.002849184310760255</v>
+        <v>0.001438394500831089</v>
       </c>
       <c r="T29">
-        <v>0.002849184310760255</v>
+        <v>0.0021393397440164</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.34653605572725</v>
+        <v>0.218412</v>
       </c>
       <c r="H30">
-        <v>0.34653605572725</v>
+        <v>0.655236</v>
       </c>
       <c r="I30">
-        <v>0.1688407028254052</v>
+        <v>0.08611363207593355</v>
       </c>
       <c r="J30">
-        <v>0.1688407028254052</v>
+        <v>0.09179750571636439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N30">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O30">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P30">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q30">
-        <v>0.1596318639218369</v>
+        <v>0.126726064188</v>
       </c>
       <c r="R30">
-        <v>0.1596318639218369</v>
+        <v>1.140534577692</v>
       </c>
       <c r="S30">
-        <v>0.001485311714573186</v>
+        <v>0.0009322964316509649</v>
       </c>
       <c r="T30">
-        <v>0.001485311714573186</v>
+        <v>0.001386614595845004</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.218412</v>
+      </c>
+      <c r="H31">
+        <v>0.655236</v>
+      </c>
+      <c r="I31">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J31">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>45.062479</v>
+      </c>
+      <c r="N31">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O31">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P31">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q31">
+        <v>9.842186163348</v>
+      </c>
+      <c r="R31">
+        <v>59.053116980088</v>
+      </c>
+      <c r="S31">
+        <v>0.07240684936069153</v>
+      </c>
+      <c r="T31">
+        <v>0.07179432832315684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.348712</v>
+      </c>
+      <c r="H32">
+        <v>0.697424</v>
+      </c>
+      <c r="I32">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J32">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.480875</v>
+      </c>
+      <c r="N32">
+        <v>0.96175</v>
+      </c>
+      <c r="O32">
+        <v>0.008972735441887963</v>
+      </c>
+      <c r="P32">
+        <v>0.008345961472334342</v>
+      </c>
+      <c r="Q32">
+        <v>0.167686883</v>
+      </c>
+      <c r="R32">
+        <v>0.670747532</v>
+      </c>
+      <c r="S32">
+        <v>0.001233636376678196</v>
+      </c>
+      <c r="T32">
+        <v>0.0008154670066034403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.348712</v>
+      </c>
+      <c r="H33">
+        <v>0.697424</v>
+      </c>
+      <c r="I33">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J33">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.865417666666667</v>
+      </c>
+      <c r="N33">
+        <v>14.596253</v>
+      </c>
+      <c r="O33">
+        <v>0.09078472687764562</v>
+      </c>
+      <c r="P33">
+        <v>0.1266646895538805</v>
+      </c>
+      <c r="Q33">
+        <v>1.696629525378667</v>
+      </c>
+      <c r="R33">
+        <v>10.179777152272</v>
+      </c>
+      <c r="S33">
+        <v>0.01248173895780141</v>
+      </c>
+      <c r="T33">
+        <v>0.01237615049808836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.348712</v>
+      </c>
+      <c r="H34">
+        <v>0.697424</v>
+      </c>
+      <c r="I34">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J34">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.708736</v>
+      </c>
+      <c r="N34">
+        <v>5.126208</v>
+      </c>
+      <c r="O34">
+        <v>0.03188362062496464</v>
+      </c>
+      <c r="P34">
+        <v>0.04448467321775106</v>
+      </c>
+      <c r="Q34">
+        <v>0.5958567480320001</v>
+      </c>
+      <c r="R34">
+        <v>3.575140488192</v>
+      </c>
+      <c r="S34">
+        <v>0.004383590096677088</v>
+      </c>
+      <c r="T34">
+        <v>0.004346507401077835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.348712</v>
+      </c>
+      <c r="H35">
+        <v>0.697424</v>
+      </c>
+      <c r="I35">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J35">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8951863333333333</v>
+      </c>
+      <c r="N35">
+        <v>2.685559</v>
+      </c>
+      <c r="O35">
+        <v>0.01670344713323365</v>
+      </c>
+      <c r="P35">
+        <v>0.02330498772620821</v>
+      </c>
+      <c r="Q35">
+        <v>0.3121622166693334</v>
+      </c>
+      <c r="R35">
+        <v>1.872973300016</v>
+      </c>
+      <c r="S35">
+        <v>0.002296510371105117</v>
+      </c>
+      <c r="T35">
+        <v>0.002277083190836421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="H31">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="I31">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="J31">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="N31">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="O31">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="P31">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="Q31">
-        <v>15.48207366333883</v>
-      </c>
-      <c r="R31">
-        <v>15.48207366333883</v>
-      </c>
-      <c r="S31">
-        <v>0.1440546067250203</v>
-      </c>
-      <c r="T31">
-        <v>0.1440546067250203</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.348712</v>
+      </c>
+      <c r="H36">
+        <v>0.697424</v>
+      </c>
+      <c r="I36">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J36">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5802156666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.740647</v>
+      </c>
+      <c r="O36">
+        <v>0.01082635128929275</v>
+      </c>
+      <c r="P36">
+        <v>0.01510514457908433</v>
+      </c>
+      <c r="Q36">
+        <v>0.2023281655546667</v>
+      </c>
+      <c r="R36">
+        <v>1.213968993328</v>
+      </c>
+      <c r="S36">
+        <v>0.001488484850987452</v>
+      </c>
+      <c r="T36">
+        <v>0.001475893110104766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.348712</v>
+      </c>
+      <c r="H37">
+        <v>0.697424</v>
+      </c>
+      <c r="I37">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J37">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>45.062479</v>
+      </c>
+      <c r="N37">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O37">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P37">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q37">
+        <v>15.713827177048</v>
+      </c>
+      <c r="R37">
+        <v>62.855308708192</v>
+      </c>
+      <c r="S37">
+        <v>0.1156032509855936</v>
+      </c>
+      <c r="T37">
+        <v>0.07641687519679831</v>
       </c>
     </row>
   </sheetData>
